--- a/repository/template/import_data_stok_oksigen.xlsx
+++ b/repository/template/import_data_stok_oksigen.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="KabKota" sheetId="3" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Rumah Sakit" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -408,7 +408,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>KabKota!$A$2:$A$20</xm:f>
+            <xm:f>'Rumah Sakit'!$A$2:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
